--- a/hois_back/src/main/resources/templates/teachersdetailload.xlsx
+++ b/hois_back/src/main/resources/templates/teachersdetailload.xlsx
@@ -199,16 +199,16 @@
     <t>${period.studyPeriod ? period.name : ''}${period.week ? period.nr + '. ' + hois:translate('query.teachersdetailload.week') : ''}${period.month ? hois:translate('month.' +  period.nr) : ''}${period.total ? hois:translate('query.teachersdetailload.total') : ''}</t>
   </si>
   <si>
-    <t>${hois:name(report.studyYear.year)}${!empty(report.studyPeriod) ? ' - ' + hois:name(report.studyPeriod) : ''}</t>
-  </si>
-  <si>
-    <t>${report.journalReport ? hois:translate('query.teachersdetailload.studentGroups') :  (report.isHigherSchool ?  hois:translate('query.teachersdetailload.teacherHigher') : hois:translate('query.teachersdetailload.teacherVocational'))}</t>
-  </si>
-  <si>
     <t>${row.studentGroups ? row.studentGroups : ''}</t>
   </si>
   <si>
-    <t>${report.journalReport ? hois:translate('query.teachersdetailload.studentGroups') : ''}</t>
+    <t>${report.journalSubjectReport ? hois:translate('query.teachersdetailload.studentGroups') : ''}</t>
+  </si>
+  <si>
+    <t>${report.journalSubjectReport ? (report.isHigher ?  hois:translate('query.teachersdetailload.subject') : hois:translate('query.teachersdetailload.journal')) :  (report.isHigherSchool ?  hois:translate('query.teachersdetailload.teacherHigher') : hois:translate('query.teachersdetailload.teacherVocational'))}</t>
+  </si>
+  <si>
+    <t>${hois:name(report.studyYear.year)}${!empty(report.studyPeriod) ? ' - ' + hois:name(report.studyPeriod) : ''}${!empty(report.teacher) ?  ' - ' + hois:name(report.teacher) : ''}</t>
   </si>
 </sst>
 </file>
@@ -587,9 +587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -604,7 +602,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -750,10 +748,10 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>9</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>11</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>5</v>
@@ -783,7 +781,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>3</v>

--- a/hois_back/src/main/resources/templates/teachersdetailload.xlsx
+++ b/hois_back/src/main/resources/templates/teachersdetailload.xlsx
@@ -190,9 +190,6 @@
     <t>${hois:classifierValue(capacity.code, 'MAHT')} - ${hois:classifierName(capacity.code, 'MAHT')}</t>
   </si>
   <si>
-    <t>${loadType.isCapacity ? loadType.capacityValue : hois:translate(loadType.name)}</t>
-  </si>
-  <si>
     <t>${hois:translate('query.teachersdetailload.noCapacityType')}</t>
   </si>
   <si>
@@ -206,6 +203,9 @@
   </si>
   <si>
     <t>${report.journalSubjectReport ? (report.isHigher ?  hois:translate('query.teachersdetailload.subject') : hois:translate('query.teachersdetailload.journal')) :  (report.isHigherSchool ?  hois:translate('query.teachersdetailload.teacherHigher') : hois:translate('query.teachersdetailload.teacherVocational'))}</t>
+  </si>
+  <si>
+    <t>${loadType.isCapacity ? loadType.capacityValue : hois:translate(loadType.name)} ${!report.isHigher &amp;&amp; loadType.timetableOccurredLessons  ? hois:translate('query.teachersdetailload.timetableShort') : ''}</t>
   </si>
   <si>
     <t>${hois:name(report.studyYear.year)}${!empty(report.studyPeriod) ? ' - ' + hois:name(report.studyPeriod) : ''}${!empty(report.teacher) ?  ' - ' + hois:name(report.teacher) : ''}</t>
@@ -587,7 +587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -646,7 +646,7 @@
     </row>
     <row r="3" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -698,7 +698,7 @@
       <c r="A5" s="2"/>
       <c r="B5" s="9"/>
       <c r="C5" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
@@ -748,13 +748,13 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>5</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -781,7 +781,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>3</v>

--- a/hois_back/src/main/resources/templates/teachersdetailload.xlsx
+++ b/hois_back/src/main/resources/templates/teachersdetailload.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eeilmlohm\Desktop\GIT\hois_back\src\main\resources\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eefrevarb\Documents\hois_back\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D23AB4A-2549-49B8-BFF3-4C0CC5F37C37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Lõhmus Ilmar</author>
+    <author>Varb Fred</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -34,11 +36,11 @@
             <family val="2"/>
             <charset val="186"/>
           </rPr>
-          <t>jx:area(lastCell="D8")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A2" authorId="0" shapeId="0">
+          <t>jx:area(lastCell="F10")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -47,12 +49,12 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>jx:each(items="report.capacities" var="capacity" lastCell="D2") direction="DOWN")
-jx:if(condition="report.capacities.size() &gt; 0"), lastCell="D2")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A3" authorId="0" shapeId="0">
+          <t>jx:each(items="report.capacities" var="capacity" lastCell="F2") direction="DOWN")
+jx:if(condition="report.capacities.size() &gt; 0"), lastCell="F2")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -61,11 +63,11 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>jx:if(condition="report.capacities.size() &gt; 0"), lastCell="D3")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C5" authorId="0" shapeId="0">
+          <t>jx:if(condition="report.capacities.size() &gt; 0"), lastCell="F3")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -75,12 +77,12 @@
             <family val="2"/>
             <charset val="186"/>
           </rPr>
-          <t>jx:each(items="report.periods" var="period" lastCell="D5") direction="RIGHT")
+          <t>jx:each(items="report.periods" var="period" lastCell="F7") direction="RIGHT")
 hois:test</t>
         </r>
       </text>
     </comment>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="F7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -90,57 +92,80 @@
             <family val="2"/>
             <charset val="186"/>
           </rPr>
-          <t xml:space="preserve">jx:each(items="hois:colspanArray(period.colspan)" var="column" lastCell="D5") direction="RIGHT")
+          <t xml:space="preserve">jx:each(items="hois:colspanArray(period.colspan)" var="column" lastCell="F7") direction="RIGHT")
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
+    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+      <text>
+        <r>
+          <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="186"/>
           </rPr>
-          <t>jx:each(items="report.periodTypesRow" var="periodType" lastCell="D6") direction="RIGHT")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D6" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
+          <t>jx:each(items="report.periodTypesRow" var="periodType" lastCell="F8") direction="RIGHT")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+      <text>
+        <r>
+          <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="186"/>
           </rPr>
-          <t xml:space="preserve">jx:each(items="hois:colspanArray(periodType.colspan)" var="column" lastCell="D6") direction="RIGHT")
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C7" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
+          <t>jx:each(items="hois:colspanArray(periodType.colspan)" var="column" lastCell="F8") direction="RIGHT")</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="186"/>
           </rPr>
-          <t>jx:each(items="report.loadTypesRow" var="loadType" lastCell="C7") direction="RIGHT")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A8" authorId="0" shapeId="0">
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B9" authorId="1" shapeId="0" xr:uid="{4B6DD8F8-EEE2-432E-9AC9-5A603ABD65A3}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+            <charset val="186"/>
+          </rPr>
+          <t>jx:if(condition="report.teacherReport"), lastCell="B9")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C9" authorId="1" shapeId="0" xr:uid="{28539BA8-DEA7-496E-BE8F-0964C684B891}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+            <charset val="186"/>
+          </rPr>
+          <t>jx:if(condition="report.teacherReport"), lastCell="C9")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -150,11 +175,11 @@
             <family val="2"/>
             <charset val="186"/>
           </rPr>
-          <t>jx:each(items="report.rows" var="row" lastCell="D8") direction="DOWN")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C8" authorId="0" shapeId="0">
+          <t>jx:each(items="report.loadTypesRow" var="loadType" lastCell="E9") direction="RIGHT")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -164,7 +189,49 @@
             <family val="2"/>
             <charset val="186"/>
           </rPr>
-          <t>jx:each(items="row.loads" var="load" lastCell="C8") direction="RIGHT")</t>
+          <t>jx:each(items="report.rows" var="row" lastCell="F10") direction="DOWN")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B10" authorId="1" shapeId="0" xr:uid="{5247AF70-9682-4890-9D38-56A8C22BE1C5}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+            <charset val="186"/>
+          </rPr>
+          <t>jx:if(condition="report.teacherReport"), lastCell="B10")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C10" authorId="1" shapeId="0" xr:uid="{3984453C-9D3A-4466-9E8B-34572FE74EF6}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+            <charset val="186"/>
+          </rPr>
+          <t>jx:if(condition="report.teacherReport"), lastCell="C10")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="186"/>
+          </rPr>
+          <t>jx:each(items="row.loads" var="load" lastCell="E10") direction="RIGHT")</t>
         </r>
       </text>
     </comment>
@@ -173,7 +240,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>${hois:translate(periodType.name)}</t>
   </si>
@@ -184,9 +251,6 @@
     <t>${hois:name(row.name)}</t>
   </si>
   <si>
-    <t>${hois:hideZeroValue(load &gt; 0 ? load : 0)}</t>
-  </si>
-  <si>
     <t>${hois:classifierValue(capacity.code, 'MAHT')} - ${hois:classifierName(capacity.code, 'MAHT')}</t>
   </si>
   <si>
@@ -209,13 +273,34 @@
   </si>
   <si>
     <t>${hois:name(report.studyYear.year)}${!empty(report.studyPeriod) ? ' - ' + hois:name(report.studyPeriod) : ''}${!empty(report.teacher) ?  ' - ' + hois:name(report.teacher) : ''}</t>
+  </si>
+  <si>
+    <t>${hois:translate('query.teachersdetailload.contactLesson')} - ${hois:translate('query.teachersdetailload.contactLessonLong')}</t>
+  </si>
+  <si>
+    <t>${hois:translate('query.teachersdetailload.koefLesson')} - ${hois:translate('query.teachersdetailload.koefLessonLong')}</t>
+  </si>
+  <si>
+    <t>${hois:translate('query.teachersdetailload.subjectCode')}</t>
+  </si>
+  <si>
+    <t>${hois:translate('query.teachersdetailload.eap')}</t>
+  </si>
+  <si>
+    <t>${row.subjectCode ? row.subjectCode : ''}</t>
+  </si>
+  <si>
+    <t>${row.eap ? row.eap : ''}</t>
+  </si>
+  <si>
+    <t>${load &gt; 0 ? hois:decimalString(load) : ''}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,6 +342,13 @@
       <color rgb="FF569CD6"/>
       <name val="Consolas"/>
       <family val="3"/>
+      <charset val="186"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
       <charset val="186"/>
     </font>
   </fonts>
@@ -307,7 +399,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normaallaad" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -584,33 +676,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" customWidth="1"/>
-    <col min="6" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" customWidth="1"/>
-    <col min="9" max="10" width="10.7109375" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" customWidth="1"/>
+    <col min="1" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" customWidth="1"/>
+    <col min="11" max="12" width="10.7109375" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="8"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="H1" s="8"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -621,15 +713,17 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="7"/>
+      <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -643,13 +737,15 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
-    </row>
-    <row r="3" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+    </row>
+    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
@@ -665,15 +761,19 @@
       <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
       <c r="R3" s="9"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
       <c r="U3" s="10"/>
       <c r="V3" s="10"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+    </row>
+    <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
@@ -689,20 +789,22 @@
       <c r="P4" s="9"/>
       <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
       <c r="U4" s="10"/>
       <c r="V4" s="10"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+    </row>
+    <row r="5" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="B5" s="9"/>
-      <c r="C5" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
@@ -715,21 +817,21 @@
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
       <c r="U5" s="10"/>
       <c r="V5" s="10"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
@@ -741,29 +843,27 @@
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
       <c r="R6" s="9"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
       <c r="U6" s="10"/>
       <c r="V6" s="10"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="8" t="s">
+        <v>5</v>
+      </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
@@ -771,27 +871,25 @@
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
       <c r="R7" s="9"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
       <c r="U7" s="10"/>
       <c r="V7" s="10"/>
-    </row>
-    <row r="8" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
       <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
+      <c r="E8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
@@ -801,41 +899,65 @@
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
       <c r="R8" s="9"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
       <c r="U8" s="10"/>
       <c r="V8" s="10"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="8"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
       <c r="U9" s="10"/>
       <c r="V9" s="10"/>
-    </row>
-    <row r="10" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+    </row>
+    <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
@@ -849,22 +971,24 @@
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
       <c r="R10" s="9"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
       <c r="U10" s="10"/>
       <c r="V10" s="10"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
@@ -873,15 +997,17 @@
       <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
       <c r="R11" s="9"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
       <c r="U11" s="10"/>
       <c r="V11" s="10"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+    </row>
+    <row r="12" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
@@ -897,19 +1023,19 @@
       <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
       <c r="R12" s="9"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
       <c r="U12" s="10"/>
       <c r="V12" s="10"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="9" t="s">
-        <v>1</v>
-      </c>
+      <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
@@ -923,15 +1049,17 @@
       <c r="P13" s="9"/>
       <c r="Q13" s="9"/>
       <c r="R13" s="9"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
       <c r="U13" s="10"/>
       <c r="V13" s="10"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
@@ -947,19 +1075,23 @@
       <c r="P14" s="9"/>
       <c r="Q14" s="9"/>
       <c r="R14" s="9"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
       <c r="U14" s="10"/>
       <c r="V14" s="10"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
+      <c r="G15" s="9" t="s">
+        <v>1</v>
+      </c>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -971,15 +1103,17 @@
       <c r="P15" s="9"/>
       <c r="Q15" s="9"/>
       <c r="R15" s="9"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
       <c r="U15" s="10"/>
       <c r="V15" s="10"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
@@ -995,15 +1129,17 @@
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
       <c r="R16" s="9"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
       <c r="U16" s="10"/>
       <c r="V16" s="10"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
@@ -1019,46 +1155,110 @@
       <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
       <c r="U17" s="10"/>
       <c r="V17" s="10"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
       <c r="U18" s="10"/>
       <c r="V18" s="10"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/hois_back/src/main/resources/templates/teachersdetailload.xlsx
+++ b/hois_back/src/main/resources/templates/teachersdetailload.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eefrevarb\Documents\hois_back\src\main\resources\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eealekond\projects\hois\hois_back\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D23AB4A-2549-49B8-BFF3-4C0CC5F37C37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,13 +19,14 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Lõhmus Ilmar</author>
+    <author>Kondratjev Aleksei</author>
     <author>Varb Fred</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -40,7 +40,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="A3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -67,7 +67,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="B7" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -77,12 +77,40 @@
             <family val="2"/>
             <charset val="186"/>
           </rPr>
+          <t>jx:if(condition="report.teacherReport"), lastCell="B9")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C7" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="186"/>
+          </rPr>
+          <t>jx:if(condition="report.teacherReport"), lastCell="C9")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="186"/>
+          </rPr>
           <t>jx:each(items="report.periods" var="period" lastCell="F7") direction="RIGHT")
 hois:test</t>
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="F7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -97,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="E8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -111,7 +139,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="F8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -137,35 +165,35 @@
         </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="1" shapeId="0" xr:uid="{4B6DD8F8-EEE2-432E-9AC9-5A603ABD65A3}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
+    <comment ref="E9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="186"/>
           </rPr>
-          <t>jx:if(condition="report.teacherReport"), lastCell="B9")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C9" authorId="1" shapeId="0" xr:uid="{28539BA8-DEA7-496E-BE8F-0964C684B891}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
+          <t>jx:each(items="report.loadTypesRow" var="loadType" lastCell="E9") direction="RIGHT")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="186"/>
           </rPr>
-          <t>jx:if(condition="report.teacherReport"), lastCell="C9")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+          <t>jx:each(items="report.rows" var="row" lastCell="F10") direction="DOWN")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B10" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -175,11 +203,11 @@
             <family val="2"/>
             <charset val="186"/>
           </rPr>
-          <t>jx:each(items="report.loadTypesRow" var="loadType" lastCell="E9") direction="RIGHT")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+          <t>jx:if(condition="report.teacherReport"), lastCell="B10")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C10" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -189,39 +217,11 @@
             <family val="2"/>
             <charset val="186"/>
           </rPr>
-          <t>jx:each(items="report.rows" var="row" lastCell="F10") direction="DOWN")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B10" authorId="1" shapeId="0" xr:uid="{5247AF70-9682-4890-9D38-56A8C22BE1C5}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-            <charset val="186"/>
-          </rPr>
-          <t>jx:if(condition="report.teacherReport"), lastCell="B10")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C10" authorId="1" shapeId="0" xr:uid="{3984453C-9D3A-4466-9E8B-34572FE74EF6}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-            <charset val="186"/>
-          </rPr>
           <t>jx:if(condition="report.teacherReport"), lastCell="C10")</t>
         </r>
       </text>
     </comment>
-    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="E10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -299,8 +299,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -342,13 +342,6 @@
       <color rgb="FF569CD6"/>
       <name val="Consolas"/>
       <family val="3"/>
-      <charset val="186"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
       <charset val="186"/>
     </font>
   </fonts>
@@ -399,7 +392,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normaallaad" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -676,10 +669,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
